--- a/data/print_templates/C__shipment_note__shipment.xlsx
+++ b/data/print_templates/C__shipment_note__shipment.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/Desktop/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972CE4D-2868-8147-AE38-CEAA6E32BABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D317F6E-7E06-184C-90EB-051C51C6E3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$2:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Destination</t>
   </si>
@@ -170,13 +192,10 @@
     <t>Flight Captain</t>
   </si>
   <si>
-    <t>Aviation Sans Frontieres</t>
-  </si>
-  <si>
-    <t>Orly Fret 768, 93 398 Orly Aérogare Cedex, France</t>
-  </si>
-  <si>
     <t>messmed@aviation-sans-frontieres-fr.org</t>
+  </si>
+  <si>
+    <t>Aviation Sans Frontieres - Orly Fret 768, 93 398 Orly Aérogare Cedex, France</t>
   </si>
 </sst>
 </file>
@@ -233,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -300,26 +319,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -338,59 +479,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1676401</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133498</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C56201C-C9CD-D6D3-36C2-6815F7A3DA09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419101" y="101600"/>
-          <a:ext cx="1257300" cy="1047898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,22 +860,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51C3FB-7A83-BF41-B717-28B03D752EA9}">
-  <dimension ref="A3:D43"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
@@ -734,16 +892,24 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -760,30 +926,24 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -800,30 +960,30 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -840,30 +1000,30 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -880,172 +1040,199 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="44" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>45</v>
-      </c>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B38:B40"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1" xr:uid="{530FC36E-F3FF-3F4E-809B-88CDFDF20860}"/>
+    <hyperlink ref="A47" r:id="rId1" xr:uid="{B86E2A8D-151D-114C-82E5-D6CE641D0866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/print_templates/C__shipment_note__shipment.xlsx
+++ b/data/print_templates/C__shipment_note__shipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D317F6E-7E06-184C-90EB-051C51C6E3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE2F14D-98CF-C045-A0E3-21BEE0FB280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
   </bookViews>
@@ -36,28 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,68 +457,59 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1EA9F9-FC73-DD31-3C6D-B1BC593D88A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="304800"/>
+          <a:ext cx="3302000" cy="1016083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,8 +834,8 @@
   </sheetPr>
   <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,9 +845,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A2" s="22"/>
       <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,5 +1201,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>